--- a/biology/Histoire de la zoologie et de la botanique/Ewald_Rübsamen/Ewald_Rübsamen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ewald_Rübsamen/Ewald_Rübsamen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ewald_R%C3%BCbsamen</t>
+          <t>Ewald_Rübsamen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ewald Rübsa(a)men, né le 20 mai 1857 à Haardt et mort le 17 mars 1919 à Coblence, est un naturaliste allemand.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ewald_R%C3%BCbsamen</t>
+          <t>Ewald_Rübsamen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rübsamen était le fils d'un mécanicien Rübsamen Franz et de sa femme Mathilde Franz. Il étudie d'abord à l'école élémentaire de Wiedenau, et plus tard dans une école secondaire à Siegen, où il obtint l'Abitur.
 Le souhait de son père, le propriétaire d'une usine d'outils d'exploration, était que son fils reprenne l'affaire, il intègre en 1875 l'École Technique Supérieure de Karlsruhe pour étudier les mathématiques. Après quatre semestres, il quitte l'université et se consacre, avec le consentement des parents, à sa vocation artistique. Il retourne dans son pays natal et s'installe à Siegerland où il est formé à l'école normale d'instituteurs de Hilchenbach pour devenir professeur d'art.
